--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2949.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2949.xlsx
@@ -354,7 +354,7 @@
         <v>2.753205008727943</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.199356090400781</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2949.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2949.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.131749929355333</v>
+        <v>0.9719789624214172</v>
       </c>
       <c r="B1">
-        <v>2.753205008727943</v>
+        <v>0.7558236122131348</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.368383646011353</v>
       </c>
       <c r="D1">
-        <v>2.199356090400781</v>
+        <v>3.217042684555054</v>
       </c>
       <c r="E1">
-        <v>1.269223559038783</v>
+        <v>0.9465873837471008</v>
       </c>
     </row>
   </sheetData>
